--- a/pages/errorfilesKitas/prospetto rendicontazione via combattenti 2019_noGestore.xlsx
+++ b/pages/errorfilesKitas/prospetto rendicontazione via combattenti 2019_noGestore.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="elenco utenti precedenti" sheetId="1" state="visible" r:id="rId2"/>
@@ -2508,8 +2508,8 @@
   </sheetPr>
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8" t="n">
-        <v>43059</v>
+        <v>43089</v>
       </c>
       <c r="F15" s="8" t="n">
         <v>44074</v>
@@ -3258,7 +3258,7 @@
   </sheetPr>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4436,7 +4436,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4474,7 +4474,7 @@
       <selection pane="topLeft" activeCell="P19" activeCellId="0" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="20.71"/>
@@ -7479,7 +7479,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="14.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="42"/>
